--- a/report.xlsx
+++ b/report.xlsx
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="24" x14ac:dyDescent="0.15"/>
